--- a/问题跟踪.xlsx
+++ b/问题跟踪.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\BudgetSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\BudgetSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7326E44-A866-4CA0-AB0A-0E106FA3F280}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E09F4A-BD34-4D46-A04B-6268A6DABB01}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8292" xr2:uid="{589D8BC8-C646-4525-82DC-4065142A7189}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>供应商查询界面中，列是否合格供应商的绑定有问题，一直是未选中状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程审批</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程审批界面，生成的数据审批表的大小有问题，这里应该使用的是数据控制能正常显示的大的大小，否则会生成两个滚动条。这里不用考虑能不能显示的大，外层会自动处理的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +504,7 @@
   <dimension ref="A1:E501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -664,9 +672,15 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
